--- a/app/static/Plantilla_Inventario_Usuario.xlsx
+++ b/app/static/Plantilla_Inventario_Usuario.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF19E99-BA54-4515-9B47-7785CA4DE058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6EB9C3A-D17E-4C21-ADF4-56AF7C183088}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>ID Producto</t>
   </si>
@@ -81,13 +80,22 @@
   </si>
   <si>
     <t>Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t>Gastos(compras)</t>
+  </si>
+  <si>
+    <t>Ventas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +111,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,14 +146,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,132 +492,405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C00062-AD45-4921-8CE8-6C7286AA402E}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>50</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>60</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>60</v>
       </c>
-      <c r="H2" s="2">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="1">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="1">
+        <v>800000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>900000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>50</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>40</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>80</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>110</v>
       </c>
-      <c r="H3" s="2">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="J3" s="1">
+        <v>900000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>300000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>35</v>
       </c>
-      <c r="H4" s="2">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
         <v>10</v>
       </c>
+      <c r="J4" s="1">
+        <v>150000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>95000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>68</v>
+      </c>
+      <c r="G6" s="1">
+        <v>120</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <v>98000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>890000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>78000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>89000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>85</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>90000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>950000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>600000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>350000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>